--- a/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:05:31+00:00</t>
+    <t>2023-02-01T07:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:10:01+00:00</t>
+    <t>2023-02-01T09:51:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:51:04+00:00</t>
+    <t>2023-02-01T09:51:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:51:40+00:00</t>
+    <t>2023-02-01T14:55:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>

--- a/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:19:22+00:00</t>
+    <t>2023-02-02T08:17:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1331,8 +1331,72 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">org-1
 </t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS</t>
+  </si>
+  <si>
+    <t>HTS</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/identifier/hiv-organization</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:HTS.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -2231,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK102"/>
+  <dimension ref="A1:AK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10054,16 +10118,16 @@
         <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>418</v>
@@ -10075,7 +10139,7 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>94</v>
@@ -10086,18 +10150,20 @@
         <v>401</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -10106,85 +10172,81 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="M75" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" s="2"/>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>94</v>
@@ -10195,7 +10257,7 @@
         <v>401</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>428</v>
@@ -10209,7 +10271,7 @@
         <v>75</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>77</v>
@@ -10218,23 +10280,19 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>429</v>
+        <v>149</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10258,13 +10316,13 @@
         <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
         <v>77</v>
@@ -10282,19 +10340,19 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>428</v>
+        <v>151</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -10302,21 +10360,21 @@
         <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>77</v>
@@ -10325,23 +10383,21 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>437</v>
+        <v>127</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>438</v>
+        <v>154</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10377,31 +10433,31 @@
         <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>436</v>
+        <v>158</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
@@ -10409,10 +10465,10 @@
         <v>401</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10423,31 +10479,31 @@
         <v>75</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>442</v>
+        <v>161</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>443</v>
+        <v>162</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>444</v>
+        <v>163</v>
       </c>
       <c r="P78" t="s" s="2">
-        <v>445</v>
+        <v>164</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>77</v>
@@ -10472,13 +10528,13 @@
         <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>77</v>
@@ -10496,13 +10552,13 @@
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>441</v>
+        <v>168</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
@@ -10516,10 +10572,10 @@
         <v>401</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10530,7 +10586,7 @@
         <v>75</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>77</v>
@@ -10539,22 +10595,22 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>447</v>
+        <v>172</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>448</v>
+        <v>173</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>449</v>
+        <v>174</v>
       </c>
       <c r="P79" t="s" s="2">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="Q79" t="s" s="2">
         <v>77</v>
@@ -10579,13 +10635,13 @@
         <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>77</v>
@@ -10603,19 +10659,19 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>446</v>
+        <v>179</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>452</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
@@ -10623,10 +10679,10 @@
         <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10646,35 +10702,35 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>454</v>
+        <v>182</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>455</v>
+        <v>183</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>456</v>
+        <v>184</v>
       </c>
       <c r="P80" t="s" s="2">
-        <v>457</v>
+        <v>185</v>
       </c>
       <c r="Q80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="U80" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="V80" t="s" s="2">
         <v>77</v>
@@ -10710,19 +10766,19 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>453</v>
+        <v>188</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>459</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
@@ -10730,10 +10786,10 @@
         <v>401</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10741,7 +10797,7 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -10753,18 +10809,20 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>77</v>
@@ -10777,7 +10835,7 @@
         <v>77</v>
       </c>
       <c r="U81" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="V81" t="s" s="2">
         <v>77</v>
@@ -10813,7 +10871,7 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
@@ -10825,7 +10883,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -10833,21 +10891,21 @@
         <v>401</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>77</v>
@@ -10856,20 +10914,18 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>77</v>
@@ -10906,31 +10962,31 @@
         <v>77</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
@@ -10938,10 +10994,10 @@
         <v>401</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10958,26 +11014,24 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>463</v>
+        <v>205</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>464</v>
+        <v>206</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>77</v>
       </c>
@@ -10989,7 +11043,7 @@
         <v>77</v>
       </c>
       <c r="U83" t="s" s="2">
-        <v>467</v>
+        <v>77</v>
       </c>
       <c r="V83" t="s" s="2">
         <v>77</v>
@@ -11001,13 +11055,13 @@
         <v>77</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>77</v>
@@ -11025,7 +11079,7 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>470</v>
+        <v>208</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -11045,10 +11099,10 @@
         <v>401</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11065,28 +11119,32 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="P84" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="S84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11094,7 +11152,7 @@
         <v>77</v>
       </c>
       <c r="U84" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="V84" t="s" s="2">
         <v>77</v>
@@ -11106,13 +11164,13 @@
         <v>77</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
         <v>77</v>
@@ -11130,7 +11188,7 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
@@ -11150,10 +11208,10 @@
         <v>401</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11164,7 +11222,7 @@
         <v>75</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>77</v>
@@ -11176,19 +11234,19 @@
         <v>83</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>236</v>
+        <v>453</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -11201,7 +11259,7 @@
         <v>77</v>
       </c>
       <c r="U85" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="V85" t="s" s="2">
         <v>77</v>
@@ -11213,13 +11271,13 @@
         <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>77</v>
@@ -11237,13 +11295,13 @@
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
@@ -11257,10 +11315,10 @@
         <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11268,10 +11326,10 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11286,13 +11344,17 @@
         <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="Q86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11304,7 +11366,7 @@
         <v>77</v>
       </c>
       <c r="U86" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="V86" t="s" s="2">
         <v>77</v>
@@ -11340,16 +11402,16 @@
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>94</v>
@@ -11360,21 +11422,21 @@
         <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -11383,19 +11445,23 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11407,7 +11473,7 @@
         <v>77</v>
       </c>
       <c r="U87" t="s" s="2">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="V87" t="s" s="2">
         <v>77</v>
@@ -11443,13 +11509,13 @@
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
@@ -11463,21 +11529,21 @@
         <v>401</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>497</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>77</v>
@@ -11486,21 +11552,23 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="P88" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="Q88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11512,7 +11580,7 @@
         <v>77</v>
       </c>
       <c r="U88" t="s" s="2">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="V88" t="s" s="2">
         <v>77</v>
@@ -11548,19 +11616,19 @@
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>94</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89">
@@ -11568,14 +11636,14 @@
         <v>401</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
@@ -11591,19 +11659,23 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="Q89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11651,19 +11723,19 @@
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>94</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90">
@@ -11671,14 +11743,14 @@
         <v>401</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
@@ -11694,16 +11766,16 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>510</v>
+        <v>149</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>511</v>
+        <v>150</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11718,7 +11790,7 @@
         <v>77</v>
       </c>
       <c r="U90" t="s" s="2">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="V90" t="s" s="2">
         <v>77</v>
@@ -11754,7 +11826,7 @@
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>513</v>
+        <v>151</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11766,7 +11838,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
@@ -11774,21 +11846,21 @@
         <v>401</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>77</v>
@@ -11797,19 +11869,19 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>515</v>
+        <v>127</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>516</v>
+        <v>154</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>517</v>
+        <v>129</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
@@ -11847,31 +11919,31 @@
         <v>77</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>518</v>
+        <v>158</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -11879,10 +11951,10 @@
         <v>401</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11899,23 +11971,25 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P92" t="s" s="2">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>77</v>
@@ -11928,7 +12002,7 @@
         <v>77</v>
       </c>
       <c r="U92" t="s" s="2">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="V92" t="s" s="2">
         <v>77</v>
@@ -11940,13 +12014,13 @@
         <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="AB92" t="s" s="2">
         <v>77</v>
@@ -11964,7 +12038,7 @@
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
@@ -11984,10 +12058,10 @@
         <v>401</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12010,18 +12084,18 @@
         <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12033,7 +12107,7 @@
         <v>77</v>
       </c>
       <c r="U93" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="V93" t="s" s="2">
         <v>77</v>
@@ -12045,13 +12119,13 @@
         <v>77</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>77</v>
+        <v>498</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>77</v>
@@ -12069,7 +12143,7 @@
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -12089,10 +12163,10 @@
         <v>401</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12103,7 +12177,7 @@
         <v>75</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>77</v>
@@ -12112,22 +12186,22 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="P94" t="s" s="2">
-        <v>533</v>
+        <v>236</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>77</v>
@@ -12140,7 +12214,7 @@
         <v>77</v>
       </c>
       <c r="U94" t="s" s="2">
-        <v>77</v>
+        <v>504</v>
       </c>
       <c r="V94" t="s" s="2">
         <v>77</v>
@@ -12176,13 +12250,13 @@
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
@@ -12196,10 +12270,10 @@
         <v>401</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12210,7 +12284,7 @@
         <v>75</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>77</v>
@@ -12219,16 +12293,16 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>149</v>
+        <v>507</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>150</v>
+        <v>508</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -12243,7 +12317,7 @@
         <v>77</v>
       </c>
       <c r="U95" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="V95" t="s" s="2">
         <v>77</v>
@@ -12279,19 +12353,19 @@
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>151</v>
+        <v>510</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -12299,21 +12373,21 @@
         <v>401</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>77</v>
@@ -12322,20 +12396,18 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>127</v>
+        <v>513</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>77</v>
@@ -12348,7 +12420,7 @@
         <v>77</v>
       </c>
       <c r="U96" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="V96" t="s" s="2">
         <v>77</v>
@@ -12384,19 +12456,19 @@
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>158</v>
+        <v>516</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
@@ -12404,46 +12476,44 @@
         <v>401</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>322</v>
+        <v>518</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>323</v>
+        <v>519</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>324</v>
+        <v>520</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
         <v>77</v>
       </c>
@@ -12455,7 +12525,7 @@
         <v>77</v>
       </c>
       <c r="U97" t="s" s="2">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="V97" t="s" s="2">
         <v>77</v>
@@ -12491,19 +12561,19 @@
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>325</v>
+        <v>523</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98">
@@ -12511,18 +12581,18 @@
         <v>401</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -12534,21 +12604,19 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
         <v>77</v>
       </c>
@@ -12572,13 +12640,13 @@
         <v>77</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>541</v>
+        <v>77</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="AB98" t="s" s="2">
         <v>77</v>
@@ -12596,7 +12664,7 @@
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>75</v>
@@ -12616,14 +12684,14 @@
         <v>401</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>77</v>
+        <v>530</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" t="s" s="2">
@@ -12639,21 +12707,19 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>546</v>
-      </c>
+      <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
         <v>77</v>
       </c>
@@ -12665,7 +12731,7 @@
         <v>77</v>
       </c>
       <c r="U99" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="V99" t="s" s="2">
         <v>77</v>
@@ -12701,7 +12767,7 @@
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
@@ -12721,10 +12787,10 @@
         <v>401</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12732,10 +12798,10 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>77</v>
@@ -12744,21 +12810,21 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
         <v>77</v>
       </c>
@@ -12806,13 +12872,13 @@
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>77</v>
@@ -12826,10 +12892,10 @@
         <v>401</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12849,20 +12915,20 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>77</v>
@@ -12875,7 +12941,7 @@
         <v>77</v>
       </c>
       <c r="U101" t="s" s="2">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="V101" t="s" s="2">
         <v>77</v>
@@ -12911,7 +12977,7 @@
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>75</v>
@@ -12931,10 +12997,10 @@
         <v>401</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12945,7 +13011,7 @@
         <v>75</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>77</v>
@@ -12954,20 +13020,20 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>555</v>
+        <v>204</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="Q102" t="s" s="2">
         <v>77</v>
@@ -13016,18 +13082,965 @@
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="P103" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AH102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI102" t="s" s="2">
+      <c r="Q103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK102" t="s" s="2">
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="Q107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Q108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Q110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK111" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
+++ b/branches/Develop_Organization-Resource---FIG-12/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T08:17:06+00:00</t>
+    <t>2023-02-02T08:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
